--- a/samples/linkedin_video_ads_demo.xlsx
+++ b/samples/linkedin_video_ads_demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>Campaign Name</t>
   </si>
@@ -46,16 +46,28 @@
     <t>Thumbnail URL</t>
   </si>
   <si>
-    <t>LinkedIn Video Campaign 1</t>
-  </si>
-  <si>
-    <t>LinkedIn Video Campaign 2</t>
-  </si>
-  <si>
-    <t>LinkedIn Video Campaign 3</t>
-  </si>
-  <si>
-    <t>LinkedIn Video Campaign 4</t>
+    <t>LinkedIn Video - Awareness</t>
+  </si>
+  <si>
+    <t>LinkedIn Video - Consideration</t>
+  </si>
+  <si>
+    <t>LinkedIn Video - Conversion</t>
+  </si>
+  <si>
+    <t>LinkedIn Video - Retargeting</t>
+  </si>
+  <si>
+    <t>LinkedIn Video - Thought Leadership</t>
+  </si>
+  <si>
+    <t>LinkedIn Video - Product Launch</t>
+  </si>
+  <si>
+    <t>LinkedIn Video - Case Study</t>
+  </si>
+  <si>
+    <t>LinkedIn Video - Brand Awareness</t>
   </si>
   <si>
     <t>LinkedIn Video Ad 1</t>
@@ -124,40 +136,208 @@
     <t>active</t>
   </si>
   <si>
-    <t>https://example.com/videos/enterprise_demo.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/videos/overview.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/videos/marketing.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/videos/testimonials.mp4</t>
-  </si>
-  <si>
-    <t>Discover how leading companies are transforming their operations with our enterprise solution.</t>
-  </si>
-  <si>
-    <t>In today's rapidly evolving business landscape, organizations are seeking innovative solutions that can help them stay competitive and drive growth. Our platform offers a comprehensive suite of tools designed specifically for enterprise needs, enabling teams to collaborate more effectively and make data-driven decisions with confidence.</t>
-  </si>
-  <si>
-    <t>Transform your B2B marketing strategy with powerful automation tools.</t>
-  </si>
-  <si>
-    <t>Join thousands of professionals who trust our platform for their business needs.</t>
-  </si>
-  <si>
-    <t>See why industry leaders choose our solution for their critical business operations.</t>
-  </si>
-  <si>
-    <t>https://example.com/enterprise</t>
+    <t>https://video.talentflow.com/enterprise/demo-1.mp4</t>
+  </si>
+  <si>
+    <t>https://video.securecloud.com/business/demo-2.mp4</t>
+  </si>
+  <si>
+    <t>https://video.datasync.com/platform/demo-3.mp4</t>
+  </si>
+  <si>
+    <t>https://video.salesai.com/demo/demo-4.mp4</t>
+  </si>
+  <si>
+    <t>https://video.teamhub.com/teams/demo-5.mp4</t>
+  </si>
+  <si>
+    <t>https://video.financeos.com/cfo/demo-6.mp4</t>
+  </si>
+  <si>
+    <t>https://video.leadgenpro.com/marketing/demo-7.mp4</t>
+  </si>
+  <si>
+    <t>https://video.cybershield.com/security/demo-8.mp4</t>
+  </si>
+  <si>
+    <t>https://video.talentflow.com/enterprise/demo-9.mp4</t>
+  </si>
+  <si>
+    <t>https://video.securecloud.com/business/demo-10.mp4</t>
+  </si>
+  <si>
+    <t>https://video.datasync.com/platform/demo-11.mp4</t>
+  </si>
+  <si>
+    <t>https://video.salesai.com/demo/demo-12.mp4</t>
+  </si>
+  <si>
+    <t>https://video.teamhub.com/teams/demo-13.mp4</t>
+  </si>
+  <si>
+    <t>https://video.financeos.com/cfo/demo-14.mp4</t>
+  </si>
+  <si>
+    <t>https://video.leadgenpro.com/marketing/demo-15.mp4</t>
+  </si>
+  <si>
+    <t>https://video.cybershield.com/security/demo-16.mp4</t>
+  </si>
+  <si>
+    <t>https://video.analyticsplatform.com/webinar-series.mp4</t>
+  </si>
+  <si>
+    <t>https://video.hrtech.com/product-launch.mp4</t>
+  </si>
+  <si>
+    <t>https://video.cloudinfra.com/infrastructure-demo.mp4</t>
+  </si>
+  <si>
+    <t>Discover how leading enterprises are revolutionizing their hiring process with AI-powered recruitment. See real results from Fortune 500 companies.</t>
+  </si>
+  <si>
+    <t>See why 10,000+ businesses trust our enterprise cloud security platform. SOC 2 certified, GDPR compliant, 99.99% uptime SLA.</t>
+  </si>
+  <si>
+    <t>Learn how our data integration platform helps companies connect 500+ applications seamlessly. No-code solution, real-time sync.</t>
+  </si>
+  <si>
+    <t>Watch how AI is transforming B2B sales. Our platform helped customers increase revenue by 45% on average in the first year.</t>
+  </si>
+  <si>
+    <t>See how global teams collaborate in real-time with our enterprise workspace platform. Used by 5,000+ distributed teams worldwide.</t>
+  </si>
+  <si>
+    <t>Discover why CFOs at growth companies choose our financial operations platform. Automated reporting, forecasting, and compliance.</t>
+  </si>
+  <si>
+    <t>Learn how marketing teams generate 10x more qualified leads with our B2B lead generation platform. ROI guaranteed.</t>
+  </si>
+  <si>
+    <t>Watch how enterprises protect their data with our advanced cybersecurity platform. Real-time threat detection and response.</t>
+  </si>
+  <si>
+    <t>In today's rapidly evolving business landscape, data-driven decision making has become absolutely critical for organizations seeking competitive advantage. Our comprehensive analytics platform empowers business leaders to harness the full potential of their data through advanced visualization, predictive modeling, and automated insights generation. Join thousands of enterprises who have already transformed their operations with our award-winning solution.</t>
+  </si>
+  <si>
+    <t>Transform your HR operations with our all-in-one people management platform. Recruitment, onboarding, performance, payroll.</t>
+  </si>
+  <si>
+    <t>See how Fortune 500 companies achieve 99.9% customer satisfaction with our enterprise support platform. Real results, real ROI.</t>
+  </si>
+  <si>
+    <t>Discover why leading enterprises choose our cloud infrastructure. Scalable, secure, and cost-effective solutions for growing businesses.</t>
+  </si>
+  <si>
+    <t>https://talentflow.com/enterprise</t>
+  </si>
+  <si>
+    <t>https://securecloud.com/business</t>
+  </si>
+  <si>
+    <t>https://datasync.com/platform</t>
+  </si>
+  <si>
+    <t>https://salesai.com/demo</t>
+  </si>
+  <si>
+    <t>https://teamhub.com/teams</t>
+  </si>
+  <si>
+    <t>https://financeos.com/cfo</t>
+  </si>
+  <si>
+    <t>https://leadgenpro.com/marketing</t>
+  </si>
+  <si>
+    <t>https://cybershield.com/security</t>
+  </si>
+  <si>
+    <t>https://analyticsplatform.com/webinar</t>
+  </si>
+  <si>
+    <t>https://hrtech.com/platform</t>
+  </si>
+  <si>
+    <t>https://supportpro.com/case-studies</t>
+  </si>
+  <si>
+    <t>https://cloudinfra.com/enterprise</t>
   </si>
   <si>
     <t>LEARN_MORE</t>
   </si>
   <si>
-    <t>https://example.com/thumbnails/professional.jpg</t>
+    <t>CONTACT_US</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>REQUEST_DEMO</t>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>https://cdn.talentflow.com/enterprise/thumbnail-1.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.securecloud.com/business/thumbnail-2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.datasync.com/platform/thumbnail-3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.salesai.com/demo/thumbnail-4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.teamhub.com/teams/thumbnail-5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.financeos.com/cfo/thumbnail-6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.leadgenpro.com/marketing/thumbnail-7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.cybershield.com/security/thumbnail-8.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.talentflow.com/enterprise/thumbnail-9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.securecloud.com/business/thumbnail-10.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.datasync.com/platform/thumbnail-11.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.salesai.com/demo/thumbnail-12.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.teamhub.com/teams/thumbnail-13.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.financeos.com/cfo/thumbnail-14.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.leadgenpro.com/marketing/thumbnail-15.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.cybershield.com/security/thumbnail-16.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.analyticsplatform.com/thumbnail-webinar.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.hrtech.com/thumbnail-platform.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.supportpro.com/thumbnail-case-study.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudinfra.com/thumbnail-infra.jpg</t>
   </si>
 </sst>
 </file>
@@ -571,127 +751,127 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <v>50</v>
       </c>
       <c r="I3">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I4">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -699,31 +879,31 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I6">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -731,118 +911,118 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>1500</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>1500</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H9">
         <v>50</v>
       </c>
       <c r="I9">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -851,7 +1031,7 @@
         <v>1500</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -859,31 +1039,31 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -891,127 +1071,127 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I12">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I13">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I14">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H15">
         <v>50</v>
       </c>
       <c r="I15">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1019,22 +1199,22 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H16">
         <v>50</v>
@@ -1043,7 +1223,7 @@
         <v>1500</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1051,86 +1231,86 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I17">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -1139,68 +1319,68 @@
         <v>150</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I20">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I21">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
